--- a/Python/reg_map/CFG.xlsx
+++ b/Python/reg_map/CFG.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\working\script\Python\reg_map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\tools\verilog_tools\script\Python\reg_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CD53C-3B03-4426-B4C1-2AA980FAB914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -594,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,12 +779,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,19 +788,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,95 +809,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1244,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1263,83 +1162,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1">
@@ -1355,17 +1254,17 @@
         <f t="shared" ref="G3:G34" si="0">IF(OR(ISBLANK(E3),ISBLANK(F3)),1,IF((E3-F3)&lt;0,0,E3-F3) +1)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H55" si="1">POWER(2,G3)-1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1378,9 +1277,9 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1"/>
       <c r="E4" s="6">
         <v>30</v>
@@ -1392,17 +1291,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="19"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1413,9 +1312,9 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6">
         <v>27</v>
@@ -1427,17 +1326,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1448,9 +1347,9 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6">
         <v>26</v>
@@ -1462,17 +1361,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1382,9 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6">
         <v>23</v>
@@ -1497,17 +1396,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,9 +1417,9 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6">
         <v>22</v>
@@ -1532,17 +1431,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1553,9 +1452,9 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6">
         <v>19</v>
@@ -1567,17 +1466,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="19"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1588,9 +1487,9 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6">
         <v>18</v>
@@ -1602,17 +1501,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1623,9 +1522,9 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6">
         <v>15</v>
@@ -1637,17 +1536,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1658,9 +1557,9 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6">
         <v>14</v>
@@ -1672,17 +1571,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1693,9 +1592,9 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6">
         <v>11</v>
@@ -1707,17 +1606,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1728,9 +1627,9 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6">
         <v>10</v>
@@ -1742,17 +1641,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1763,9 +1662,9 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
@@ -1775,17 +1674,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1796,9 +1695,9 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6">
         <v>6</v>
@@ -1810,17 +1709,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1831,9 +1730,9 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6">
         <v>3</v>
@@ -1843,17 +1742,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1864,9 +1763,9 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6">
         <v>2</v>
@@ -1878,17 +1777,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1899,11 +1798,11 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="1"/>
@@ -1915,17 +1814,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -1938,9 +1837,9 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6">
         <v>30</v>
@@ -1952,17 +1851,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1973,9 +1872,9 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6">
         <v>27</v>
@@ -1987,17 +1886,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H21" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2008,9 +1907,9 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1"/>
       <c r="E22" s="6">
         <v>26</v>
@@ -2022,17 +1921,17 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>134217727</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="19"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2043,13 +1942,13 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="1"/>
@@ -2061,17 +1960,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H23" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2086,9 +1985,9 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1"/>
       <c r="E24" s="6">
         <v>27</v>
@@ -2100,17 +1999,17 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="6">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2123,9 +2022,9 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="1"/>
       <c r="E25" s="6">
         <v>25</v>
@@ -2135,17 +2034,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="1" t="s">
         <v>64</v>
       </c>
@@ -2158,9 +2057,9 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="2"/>
       <c r="E26" s="6">
         <v>24</v>
@@ -2172,17 +2071,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2195,9 +2094,9 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6">
         <v>21</v>
@@ -2207,17 +2106,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="1" t="s">
         <v>67</v>
       </c>
@@ -2230,9 +2129,9 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6">
         <v>20</v>
@@ -2244,17 +2143,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="1" t="s">
         <v>67</v>
       </c>
@@ -2267,9 +2166,9 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6">
         <v>13</v>
@@ -2279,17 +2178,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H29" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2302,9 +2201,9 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6">
         <v>12</v>
@@ -2316,17 +2215,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="1" t="s">
         <v>70</v>
       </c>
@@ -2339,9 +2238,9 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6">
         <v>9</v>
@@ -2351,17 +2250,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H31" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2374,9 +2273,9 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2"/>
       <c r="E32" s="6">
         <v>8</v>
@@ -2388,17 +2287,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2411,9 +2310,9 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6">
         <v>5</v>
@@ -2423,17 +2322,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H33" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="H33" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="1" t="s">
         <v>76</v>
       </c>
@@ -2446,9 +2345,9 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6">
         <v>4</v>
@@ -2460,17 +2359,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="6">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2483,13 +2382,13 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="2"/>
@@ -2501,17 +2400,17 @@
         <f t="shared" ref="G35:G66" si="2">IF(OR(ISBLANK(E35),ISBLANK(F35)),1,IF((E35-F35)&lt;0,0,E35-F35) +1)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -2526,9 +2425,9 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6">
         <v>29</v>
@@ -2540,17 +2439,17 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>32767</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="6">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="1" t="s">
         <v>82</v>
       </c>
@@ -2563,9 +2462,9 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="2"/>
       <c r="E37" s="6">
         <v>14</v>
@@ -2575,17 +2474,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="H37" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="1" t="s">
         <v>85</v>
       </c>
@@ -2598,9 +2497,9 @@
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2"/>
       <c r="E38" s="6">
         <v>13</v>
@@ -2612,17 +2511,17 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="6">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="1" t="s">
         <v>85</v>
       </c>
@@ -2635,9 +2534,9 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2"/>
       <c r="E39" s="6">
         <v>10</v>
@@ -2647,17 +2546,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H39" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="H39" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2670,9 +2569,9 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2"/>
       <c r="E40" s="6">
         <v>7</v>
@@ -2684,17 +2583,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H40" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="H40" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I40" s="6">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="1" t="s">
         <v>88</v>
       </c>
@@ -2707,9 +2606,9 @@
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2"/>
       <c r="E41" s="6">
         <v>5</v>
@@ -2719,17 +2618,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="H41" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="1" t="s">
         <v>91</v>
       </c>
@@ -2742,9 +2641,9 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2"/>
       <c r="E42" s="6">
         <v>4</v>
@@ -2756,17 +2655,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I42" s="8">
+      <c r="H42" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I42" s="6">
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="1" t="s">
         <v>91</v>
       </c>
@@ -2779,9 +2678,9 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
       <c r="E43" s="6">
         <v>2</v>
@@ -2791,17 +2690,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H43" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="H43" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2814,9 +2713,9 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="2"/>
       <c r="E44" s="6">
         <v>1</v>
@@ -2828,17 +2727,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I44" s="8">
+      <c r="H44" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I44" s="6">
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="1" t="s">
         <v>94</v>
       </c>
@@ -2851,11 +2750,11 @@
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="3"/>
@@ -2867,17 +2766,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H45" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="H45" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -2892,9 +2791,9 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6">
         <v>25</v>
@@ -2906,17 +2805,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H46" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I46" s="6">
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K46" s="11"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2929,9 +2828,9 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6">
         <v>23</v>
@@ -2941,17 +2840,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H47" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="8">
+      <c r="H47" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K47" s="11"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="1" t="s">
         <v>102</v>
       </c>
@@ -2964,9 +2863,9 @@
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6">
         <v>22</v>
@@ -2978,17 +2877,17 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="6">
         <f t="shared" si="1"/>
         <v>8191</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="6">
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K48" s="11"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="1" t="s">
         <v>102</v>
       </c>
@@ -3001,9 +2900,9 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
       <c r="E49" s="6">
         <v>6</v>
@@ -3013,17 +2912,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H49" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I49" s="8">
+      <c r="H49" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K49" s="11"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="1" t="s">
         <v>105</v>
       </c>
@@ -3036,9 +2935,9 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
       <c r="E50" s="6">
         <v>5</v>
@@ -3050,17 +2949,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H50" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I50" s="8">
+      <c r="H50" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I50" s="6">
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K50" s="11"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="1" t="s">
         <v>105</v>
       </c>
@@ -3073,9 +2972,9 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
       <c r="E51" s="6">
         <v>3</v>
@@ -3085,17 +2984,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H51" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I51" s="8">
+      <c r="H51" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K51" s="11"/>
+      <c r="K51" s="9"/>
       <c r="L51" s="1" t="s">
         <v>108</v>
       </c>
@@ -3108,9 +3007,9 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="2"/>
       <c r="E52" s="6">
         <v>2</v>
@@ -3122,17 +3021,17 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="6">
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K52" s="12"/>
+      <c r="K52" s="10"/>
       <c r="L52" s="1" t="s">
         <v>108</v>
       </c>
@@ -3145,11 +3044,11 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="3"/>
@@ -3161,17 +3060,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H53" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="H53" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="8" t="s">
         <v>105</v>
       </c>
       <c r="L53" s="1"/>
@@ -3184,9 +3083,9 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="3"/>
       <c r="E54" s="6">
         <v>25</v>
@@ -3198,17 +3097,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H54" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I54" s="8">
+      <c r="H54" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I54" s="6">
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K54" s="11"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
         <v>1</v>
@@ -3219,9 +3118,9 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6">
         <v>23</v>
@@ -3231,17 +3130,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H55" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="H55" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K55" s="11"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
         <v>1</v>
@@ -3252,9 +3151,9 @@
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6">
         <v>22</v>
@@ -3266,17 +3165,17 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="6">
         <f>POWER(2,G56)-1</f>
         <v>8191</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="6">
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K56" s="11"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
         <v>1</v>
@@ -3287,9 +3186,9 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
       <c r="E57" s="6">
         <v>6</v>
@@ -3299,17 +3198,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="6">
         <f t="shared" ref="H57:H76" si="3">POWER(2,G57)-1</f>
         <v>1</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="6">
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="11"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
         <v>1</v>
@@ -3320,9 +3219,9 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
       <c r="E58" s="6">
         <v>5</v>
@@ -3334,17 +3233,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="6">
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K58" s="11"/>
+      <c r="K58" s="9"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
         <v>1</v>
@@ -3355,9 +3254,9 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
       <c r="E59" s="6">
         <v>3</v>
@@ -3367,17 +3266,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="6">
         <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K59" s="11"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
         <v>1</v>
@@ -3388,9 +3287,9 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="2"/>
       <c r="E60" s="6">
         <v>2</v>
@@ -3402,17 +3301,17 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="6">
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K60" s="12"/>
+      <c r="K60" s="10"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
         <v>1</v>
@@ -3423,11 +3322,11 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D61" s="3"/>
@@ -3439,17 +3338,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="6">
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="8" t="s">
         <v>130</v>
       </c>
       <c r="L61" s="1"/>
@@ -3462,9 +3361,9 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6">
         <v>25</v>
@@ -3476,17 +3375,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="6">
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K62" s="11"/>
+      <c r="K62" s="9"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
         <v>1</v>
@@ -3497,9 +3396,9 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="3"/>
       <c r="E63" s="6">
         <v>23</v>
@@ -3509,17 +3408,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="6">
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K63" s="11"/>
+      <c r="K63" s="9"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
         <v>1</v>
@@ -3530,9 +3429,9 @@
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6">
         <v>22</v>
@@ -3544,17 +3443,17 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="6">
         <f t="shared" si="3"/>
         <v>8191</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="6">
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K64" s="11"/>
+      <c r="K64" s="9"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
         <v>1</v>
@@ -3565,9 +3464,9 @@
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2"/>
       <c r="E65" s="6">
         <v>6</v>
@@ -3577,17 +3476,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="6">
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K65" s="11"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
         <v>1</v>
@@ -3598,9 +3497,9 @@
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2"/>
       <c r="E66" s="6">
         <v>5</v>
@@ -3612,17 +3511,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="6">
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K66" s="11"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
         <v>1</v>
@@ -3633,9 +3532,9 @@
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2"/>
       <c r="E67" s="6">
         <v>3</v>
@@ -3645,17 +3544,17 @@
         <f t="shared" ref="G67:G76" si="4">IF(OR(ISBLANK(E67),ISBLANK(F67)),1,IF((E67-F67)&lt;0,0,E67-F67) +1)</f>
         <v>1</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="6">
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K67" s="11"/>
+      <c r="K67" s="9"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
         <v>1</v>
@@ -3666,9 +3565,9 @@
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="2"/>
       <c r="E68" s="6">
         <v>2</v>
@@ -3680,17 +3579,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="6">
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K68" s="12"/>
+      <c r="K68" s="10"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
         <v>1</v>
@@ -3701,11 +3600,11 @@
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D69" s="3"/>
@@ -3717,17 +3616,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="6">
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L69" s="1"/>
@@ -3740,9 +3639,9 @@
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6">
         <v>25</v>
@@ -3754,17 +3653,17 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="6">
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="11"/>
+      <c r="K70" s="9"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
         <v>1</v>
@@ -3775,9 +3674,9 @@
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6">
         <v>23</v>
@@ -3787,17 +3686,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="6">
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K71" s="11"/>
+      <c r="K71" s="9"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
         <v>1</v>
@@ -3808,9 +3707,9 @@
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6">
         <v>22</v>
@@ -3822,17 +3721,17 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="6">
         <f t="shared" si="3"/>
         <v>8191</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="6">
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K72" s="11"/>
+      <c r="K72" s="9"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
         <v>1</v>
@@ -3843,9 +3742,9 @@
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="2"/>
       <c r="E73" s="6">
         <v>6</v>
@@ -3855,17 +3754,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="6">
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K73" s="11"/>
+      <c r="K73" s="9"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
         <v>1</v>
@@ -3876,9 +3775,9 @@
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="2"/>
       <c r="E74" s="6">
         <v>5</v>
@@ -3890,17 +3789,17 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="6">
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K74" s="11"/>
+      <c r="K74" s="9"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
         <v>1</v>
@@ -3911,9 +3810,9 @@
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="2"/>
       <c r="E75" s="6">
         <v>3</v>
@@ -3923,17 +3822,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="6">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K75" s="11"/>
+      <c r="K75" s="9"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
         <v>1</v>
@@ -3944,9 +3843,9 @@
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="2"/>
       <c r="E76" s="6">
         <v>2</v>
@@ -3958,17 +3857,17 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="6">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K76" s="12"/>
+      <c r="K76" s="10"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
         <v>1</v>
@@ -3980,20 +3879,14 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="K69:K76"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="K53:K60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="K61:K68"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="K45:K52"/>
-    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="K23:K34"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="K35:K44"/>
+    <mergeCell ref="A35:A76"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
@@ -4010,65 +3903,23 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C23:C34"/>
-    <mergeCell ref="K23:K34"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="K35:K44"/>
-    <mergeCell ref="A35:A76"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="K69:K76"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="K53:K60"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="K61:K68"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="K45:K52"/>
+    <mergeCell ref="B45:B52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O45:O52 B3:G3 B4:F52 G4:G76 J24:L52 N24:O44 M24:M76 J3:O23">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>MOD(COUNTA($B$3:$B3),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>MOD(COUNTA($B$3:$B3),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F60 O53:O60 J53:L60">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>MOD(COUNTA($B$3:$B53),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>MOD(COUNTA($B$3:$B53),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:F68 K61:L68 O61:O67 N45:N67 N68:O68">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>MOD(COUNTA($B$3:$B45),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>MOD(COUNTA($B$3:$B45),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:J68">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>MOD(COUNTA($B$3:$B61),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>MOD(COUNTA($B$3:$B61),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F76 K69:L76 N69:O76">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>MOD(COUNTA($B$3:$B69),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
-      <formula>MOD(COUNTA($B$3:$B69),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J76">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>MOD(COUNTA($B$3:$B69),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>MOD(COUNTA($B$3:$B69),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I76">
+  <conditionalFormatting sqref="B3:O76">
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COUNTA($B$3:$B3),2)=0</formula>
     </cfRule>
